--- a/tests/Player Stats.xlsx
+++ b/tests/Player Stats.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -509,7 +509,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Span</t>
@@ -580,7 +579,6 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -740,7 +738,240 @@
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Span</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mat</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Inns</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Runs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ave</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BF</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4s</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>6s</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>unfiltered</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2000-2017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10099</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>52.05</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>19375</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>52.12</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>filtered</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2005-2007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>56.55</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/Player Stats.xlsx
+++ b/tests/Player Stats.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -130,7 +131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,15 +345,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
           <t>Span</t>
@@ -425,6 +425,7 @@
           <t>6s</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -509,471 +510,84 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>filtered</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Span</t>
+          <t>2005-2007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mat</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Inns</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Runs</t>
+          <t>768</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>267</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ave</t>
+          <t>76.80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>56.55</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4s</t>
+          <t>99</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>unfiltered</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2000-2017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10099</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>52.05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>19375</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>52.12</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>filtered</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2005-2007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>768</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>76.80</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1358</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>56.55</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Span</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mat</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Inns</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Runs</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>HS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Ave</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BF</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>4s</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>6s</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>unfiltered</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2000-2017</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10099</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>52.05</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>19375</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>52.12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>filtered</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2005-2007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>768</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>76.80</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1358</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>56.55</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>